--- a/testData/Data_Register.xlsx
+++ b/testData/Data_Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dular\OneDrive\Documents\IntelliJ\OpenCartTesting\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5D18EA-0843-45D9-A3C1-AA917DF4954A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE2E129-C867-4106-B6CC-466596502B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Email</t>
   </si>
@@ -85,13 +85,28 @@
   </si>
   <si>
     <t>jhondoe123@demo.site</t>
+  </si>
+  <si>
+    <t>Babi</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>babilon@demo.site</t>
+  </si>
+  <si>
+    <t>Bab@1234</t>
+  </si>
+  <si>
+    <t>Bab@1235</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +126,12 @@
       <b/>
       <sz val="14"/>
       <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -428,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,15 +533,48 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A5020B9D-346A-41F0-8A62-8C80455BFE47}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{235494A9-4F9B-4781-9773-D06518000701}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{EBFD6AB1-4467-4016-B1D7-0F85DDE7F3CF}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{97AFE91E-CFA3-4A85-B6EC-83C4800E12E7}"/>
     <hyperlink ref="D5" r:id="rId5" xr:uid="{7FCB2A18-58E3-40C1-9348-2B1957F5E990}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{B9D2990A-A38D-4D5C-9EE6-2F91528EB6C2}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{4F6F615A-0678-428B-BB92-0CB2CB182A89}"/>
+    <hyperlink ref="D7" r:id="rId8" display="Bab@1234" xr:uid="{66D56381-1D51-4E7A-89B0-5B178FC0FEE6}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{9EC3376F-0D17-4CB1-A3BD-4569DEA3F64E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>